--- a/辅助表/技能表格.xlsx
+++ b/辅助表/技能表格.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="16540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="角色" sheetId="4" r:id="rId2"/>
-    <sheet name="技能表" sheetId="2" r:id="rId3"/>
-    <sheet name="技能效果表" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="6" r:id="rId3"/>
+    <sheet name="角色" sheetId="4" r:id="rId4"/>
+    <sheet name="技能表" sheetId="2" r:id="rId5"/>
+    <sheet name="技能效果表" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="269">
   <si>
     <t>技能的可配置项</t>
     <rPh sb="0" eb="1">
@@ -1732,13 +1734,1085 @@
   </si>
   <si>
     <t>1001，2003</t>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="1">
+      <t>pan'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <rPh sb="0" eb="1">
+      <t>wei'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <rPh sb="0" eb="1">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击计算公式，xx%（基于当前攻击力的百分比，受防御影响）+xx（固定伤害数字，受防御影响）+xx（真实伤害，不受防御影响）</t>
+  </si>
+  <si>
+    <t>命中判定，正常命中/必中</t>
+  </si>
+  <si>
+    <t>对所有命中者按xx%概率附加buff，比如附加中毒buff（每回合扣血xx%，持续x回合）</t>
+  </si>
+  <si>
+    <t>被动触发判定</t>
+    <rPh sb="0" eb="1">
+      <t>bei'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pan'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性增加</t>
+    <rPh sb="0" eb="1">
+      <t>shu'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>吸血</t>
+    <rPh sb="0" eb="1">
+      <t>xi'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹</t>
+  </si>
+  <si>
+    <t>反弹</t>
+    <rPh sb="0" eb="1">
+      <t>fan't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色存活时</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发</t>
+    <rPh sb="0" eb="1">
+      <t>chu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活时</t>
+    <rPh sb="0" eb="1">
+      <t>cun'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时</t>
+    <rPh sb="0" eb="1">
+      <t>si'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫</t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能模板</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击选位</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围</t>
+    <rPh sb="0" eb="1">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中判定</t>
+    <rPh sb="0" eb="1">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pan'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害计算</t>
+    <rPh sb="0" eb="1">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加buff</t>
+    <rPh sb="0" eb="1">
+      <t>fu'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害性</t>
+    <rPh sb="0" eb="1">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方buff性</t>
+    <rPh sb="0" eb="1">
+      <t>ji'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响范围</t>
+    <rPh sb="0" eb="1">
+      <t>ying'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="1">
+      <t>ming'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加buff</t>
+    <rPh sb="0" eb="1">
+      <t>fu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板1</t>
+    <rPh sb="0" eb="1">
+      <t>mo'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时间</t>
+    <rPh sb="0" eb="1">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <rPh sb="0" eb="1">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发值</t>
+    <rPh sb="0" eb="1">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果</t>
+    <rPh sb="0" eb="1">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="1">
+      <t>pu't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排</t>
+    <rPh sb="0" eb="1">
+      <t>hou'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <rPh sb="0" eb="1">
+      <t>zi'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（a*攻击+b）+c</t>
+    <rPh sb="4" eb="5">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中</t>
+    <rPh sb="0" eb="1">
+      <t>bi'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常命中</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>混乱</t>
+  </si>
+  <si>
+    <t>buff种类</t>
+  </si>
+  <si>
+    <t>buff种类</t>
+    <rPh sb="4" eb="5">
+      <t>zhong'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体：只对所选目标造成影响</t>
+  </si>
+  <si>
+    <t>穿透：只对所选目标和其后方一格位置造成影响</t>
+  </si>
+  <si>
+    <t>发散：只对所选目标和其左右各一格位置造成影响</t>
+  </si>
+  <si>
+    <t>十字：只对所选目标和其前后左右各一格位置造成影响</t>
+  </si>
+  <si>
+    <t>贯穿：只对所选目标和其后方一条线所有位置造成影响</t>
+  </si>
+  <si>
+    <t>横扫：只对所选目标和其同排所有位置造成影响</t>
+  </si>
+  <si>
+    <t>范围：只对所选目标、目标左右各一格及它们身后各一格所有位置造成影响</t>
+  </si>
+  <si>
+    <t>随机：只对所选目标及另外随机两个目标造成影响</t>
+  </si>
+  <si>
+    <t>全体：所有目标</t>
+  </si>
+  <si>
+    <t>对命中目标施加buff概率</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gai'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对命中目标施加buff</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sh'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx%（基于当前攻击力的百分比，受防御影响）+xx（固定伤害数字，受防御影响）+SS（真实伤害，不受防御影响）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（a攻击+b）+c</t>
+    <rPh sb="3" eb="4">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（）为伤害计算公式</t>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择敌方后排目标释放。对目标十字范围的单位造成120%攻击伤害+500真实伤害。必中，并对所有命中目标30%概率释放buff中毒，持续3回合。</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fan'w</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dan'w</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhen's</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bi'zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>suo'y</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>gai'l</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhong'du</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>chi'x</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>hui'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对己方任意1单位进行释放，必中，100%概率提升目标30&amp;暴击率，持续3回合。</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan'w</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi'zhong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gai'l</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chi'x</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hui'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对己方任意1单位进行释放，必中，100%概率提升回复生命120%攻击+500</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan'w</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi'zhong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gai'l</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hui'f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>sheng'm</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒免疫</t>
+  </si>
+  <si>
+    <t>中毒免疫</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕免疫</t>
+  </si>
+  <si>
+    <t>眩晕免疫</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱免疫</t>
+  </si>
+  <si>
+    <t>混乱免疫</t>
+    <rPh sb="0" eb="1">
+      <t>hun'luan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <rPh sb="0" eb="1">
+      <t>bei'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战场时对自身施加攻击增加200%buff，持续3回合。</t>
+    <rPh sb="0" eb="1">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sh'jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chi'x</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>hui'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时30%概率触发吸血，吸血量为攻击的20%</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'l</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi'xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时，30%概率触发，反弹30%受到的伤害。</t>
+    <rPh sb="0" eb="1">
+      <t>shou'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai'l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan'tan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shou'dao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>d</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色存活时，每回合结束时对敌方全体造成1次200点伤害。</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei'hui'h</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色存活时，每回合开始时对我方全体提升30%攻击。</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai's</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wo'f</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'sehng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色死亡时对敌方全体单位造成伤害。</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan'w</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色死亡时对我方全体施加回复10%生命，并攻击增加30%</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wo'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hui'f</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>sheng'm</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方每死亡1个单位时增加自身攻击10%</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>si'w</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan'w</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色血量剩余50%时增加自身防御20%。</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复生命</t>
+  </si>
+  <si>
+    <t>施加buff</t>
+  </si>
+  <si>
+    <t>攻击增加</t>
+  </si>
+  <si>
+    <t>防御增加</t>
+  </si>
+  <si>
+    <t>速度增加</t>
+  </si>
+  <si>
+    <t>命中率增加</t>
+  </si>
+  <si>
+    <t>回避率增加</t>
+  </si>
+  <si>
+    <t>格挡率增加</t>
+  </si>
+  <si>
+    <t>反击率增加</t>
+  </si>
+  <si>
+    <t>暴击率增加</t>
+  </si>
+  <si>
+    <t>暴伤率增加</t>
+  </si>
+  <si>
+    <t>连击率增加</t>
+  </si>
+  <si>
+    <t>免伤率增加</t>
+  </si>
+  <si>
+    <t>攻击降低</t>
+  </si>
+  <si>
+    <t>防御降低</t>
+  </si>
+  <si>
+    <t>速度降低</t>
+  </si>
+  <si>
+    <t>命中率降低</t>
+  </si>
+  <si>
+    <t>回避率降低</t>
+  </si>
+  <si>
+    <t>格挡率降低</t>
+  </si>
+  <si>
+    <t>反击率降低</t>
+  </si>
+  <si>
+    <t>暴击率降低</t>
+  </si>
+  <si>
+    <t>暴伤率降低</t>
+  </si>
+  <si>
+    <t>连击率降低</t>
+  </si>
+  <si>
+    <t>免伤率降低</t>
+  </si>
+  <si>
+    <t>怒气增加</t>
+  </si>
+  <si>
+    <t>怒气减少</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1775,6 +2849,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1799,10 +2899,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1812,9 +2928,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2089,26 +3222,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="G53" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62:S101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -2116,27 +3252,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -2144,17 +3280,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -2163,25 +3299,25 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -2191,7 +3327,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>17</v>
       </c>
@@ -2201,7 +3337,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +3347,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>21</v>
       </c>
@@ -2221,7 +3357,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +3366,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>25</v>
       </c>
@@ -2239,42 +3375,59 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -2282,27 +3435,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -2310,51 +3489,72 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="3"/>
       <c r="G59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>48</v>
       </c>
@@ -2368,7 +3568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="3" t="s">
         <v>52</v>
       </c>
@@ -2376,7 +3576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2384,84 +3584,267 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="K63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="3"/>
       <c r="E64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="J64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="J65" t="s">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+      <c r="M65" t="s">
+        <v>184</v>
+      </c>
+      <c r="N65" t="s">
+        <v>183</v>
+      </c>
+      <c r="O65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="P66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="K67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" t="s">
+        <v>201</v>
+      </c>
+      <c r="N67" t="s">
+        <v>202</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K68" t="s">
+        <v>198</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" t="s">
+        <v>203</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K69" t="s">
+        <v>199</v>
+      </c>
+      <c r="L69" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="K70" t="s">
+        <v>200</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="L71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="S77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="S78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="S79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J83" t="s">
+        <v>187</v>
+      </c>
+      <c r="K83" t="s">
+        <v>181</v>
+      </c>
+      <c r="L83" t="s">
+        <v>188</v>
+      </c>
+      <c r="M83" t="s">
+        <v>189</v>
+      </c>
+      <c r="N83" t="s">
+        <v>190</v>
+      </c>
+      <c r="S83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2471,168 +3854,233 @@
       <c r="D86" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J89" t="s">
+        <v>142</v>
+      </c>
+      <c r="S89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J90" t="s">
+        <v>192</v>
+      </c>
+      <c r="K90" t="s">
+        <v>193</v>
+      </c>
+      <c r="L90" t="s">
+        <v>194</v>
+      </c>
+      <c r="M90" t="s">
+        <v>196</v>
+      </c>
+      <c r="N90" t="s">
+        <v>195</v>
+      </c>
+      <c r="S90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="K91" t="s">
+        <v>43</v>
+      </c>
+      <c r="S91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="S94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="S96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="S97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="S99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="S100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="4:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" t="s">
         <v>103</v>
       </c>
@@ -2646,7 +4094,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" t="s">
         <v>106</v>
       </c>
@@ -2657,7 +4105,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
         <v>109</v>
       </c>
@@ -2665,57 +4113,57 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F126" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F131" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F133" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
         <v>121</v>
       </c>
@@ -2723,17 +4171,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" t="s">
         <v>125</v>
       </c>
@@ -2746,10 +4194,929 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:H85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H53" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H54" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H55" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H56" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H57" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H58" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H59" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H60" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H61" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H62" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H63" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H64" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H65" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H66" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H67" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H68" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H69" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H71" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H72" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H74" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H75" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H76" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H38" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H40" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2832,12 +5199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F16" sqref="F16:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3214,12 +5581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
